--- a/data/scheduling_DNN/predict/0.5/result4.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result4.xlsx
@@ -570,10 +570,10 @@
         <v>0.9620230197906494</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.401435911655426</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2096130698919296</v>
+        <v>0.3142579197883606</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8921239376068115</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.4042948782444</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0119191212579608</v>
+        <v>0.2379771918058395</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.873668909072876</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.5078453421592712</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1567129194736481</v>
+        <v>0.13382688164711</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8910341262817383</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.5314079523086548</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1940243542194366</v>
+        <v>0.1293309777975082</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.883497953414917</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.4032621383666992</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1238280609250069</v>
+        <v>0.2306264340877533</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8729598522186279</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.3991835713386536</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1354390233755112</v>
+        <v>0.2244639694690704</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8907849788665771</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.9005153775215149</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2376548945903778</v>
+        <v>9.468066127737984e-05</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8691999912261963</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.499238520860672</v>
       </c>
       <c r="W9" t="n">
-        <v>0.05158849433064461</v>
+        <v>0.1368714869022369</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8802900314331055</v>
       </c>
       <c r="V10" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4020532667636871</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2807259857654572</v>
+        <v>0.2287103980779648</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8647279739379883</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.4020726382732391</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2440666109323502</v>
+        <v>0.2140499651432037</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9151389598846436</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4871179163455963</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1699980646371841</v>
+        <v>0.1832020133733749</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8867030143737793</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.404459536075592</v>
       </c>
       <c r="W13" t="n">
-        <v>0.003744129789993167</v>
+        <v>0.2325587719678879</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8881669044494629</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.5137873291969299</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2887875437736511</v>
+        <v>0.1401600688695908</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9493319988250732</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.476321667432785</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1897648423910141</v>
+        <v>0.2237387746572495</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9293711185455322</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.8962053060531616</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06090321019291878</v>
+        <v>0.001099971123039722</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8806600570678711</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.4212660789489746</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2790258824825287</v>
+        <v>0.2110428214073181</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8761510848999023</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.863641083240509</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1310448497533798</v>
+        <v>0.000156500143930316</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8594691753387451</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.421894371509552</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2298007309436798</v>
+        <v>0.1914717108011246</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9256541728973389</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.8645936846733093</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3031740188598633</v>
+        <v>0.003728383220732212</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8782110214233398</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.8582686185836792</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2254188507795334</v>
+        <v>0.0003976994194090366</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5212700366973877</v>
       </c>
       <c r="V22" t="n">
-        <v>0.672019362449646</v>
+        <v>0.4080379605293274</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02272535860538483</v>
+        <v>0.0128215029835701</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5299160480499268</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.5488791465759277</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07305063307285309</v>
+        <v>0.0003595991001930088</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5251100063323975</v>
       </c>
       <c r="V24" t="n">
-        <v>0.672245979309082</v>
+        <v>0.5057229995727539</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02164899371564388</v>
+        <v>0.0003758560342248529</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.7349710464477539</v>
       </c>
       <c r="V25" t="n">
-        <v>0.375304102897644</v>
+        <v>0.8746123313903809</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1293603032827377</v>
+        <v>0.01949968934059143</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5272889137268066</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.9006401896476746</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01528507377952337</v>
+        <v>0.1393911689519882</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5205950736999512</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.8709927797317505</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0004415019939187914</v>
+        <v>0.1227785497903824</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5179450511932373</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.487737238407135</v>
       </c>
       <c r="W28" t="n">
-        <v>1.700283428363036e-05</v>
+        <v>0.0009125119540840387</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5471930503845215</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.4042614102363586</v>
       </c>
       <c r="W29" t="n">
-        <v>0.00100837810896337</v>
+        <v>0.020429452881217</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5968430042266846</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.3991817235946655</v>
       </c>
       <c r="W30" t="n">
-        <v>0.03730883821845055</v>
+        <v>0.03906998038291931</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5157961845397949</v>
       </c>
       <c r="V31" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.4989603757858276</v>
       </c>
       <c r="W31" t="n">
-        <v>0.1865126043558121</v>
+        <v>0.0002834444458130747</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5430161952972412</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.404405415058136</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02783745154738426</v>
+        <v>0.01921294815838337</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5233700275421143</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.4898637235164642</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02211087383329868</v>
+        <v>0.00112267246004194</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5274989604949951</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.4923020303249359</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0007978188805282116</v>
+        <v>0.001238823868334293</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5812101364135742</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.8660721182823181</v>
       </c>
       <c r="W35" t="n">
-        <v>0.001951528014615178</v>
+        <v>0.08114635199308395</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5146191120147705</v>
       </c>
       <c r="V36" t="n">
-        <v>0.54131019115448</v>
+        <v>0.4012580215930939</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0007124136900529265</v>
+        <v>0.01285073719918728</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5166120529174805</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4220114350318909</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01274748425930738</v>
+        <v>0.008949276991188526</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5149469375610352</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4058554470539093</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0001323144679190591</v>
+        <v>0.0119009530171752</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.513206958770752</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.5135493874549866</v>
       </c>
       <c r="W39" t="n">
-        <v>0.005678401794284582</v>
+        <v>1.172574002339388e-07</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5150690078735352</v>
       </c>
       <c r="V40" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4985268414020538</v>
       </c>
       <c r="W40" t="n">
-        <v>0.002381447935476899</v>
+        <v>0.0002736432652454823</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5304489135742188</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4042849540710449</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03170449286699295</v>
+        <v>0.01591734401881695</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3964581489562988</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8694064021110535</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07038278132677078</v>
+        <v>0.2236800491809845</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4007949829101562</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.9014135003089905</v>
       </c>
       <c r="W43" t="n">
-        <v>0.02566285617649555</v>
+        <v>0.2506189048290253</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3881270885467529</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.8750710487365723</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01578853465616703</v>
+        <v>0.2371144145727158</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3887898921966553</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.3976808190345764</v>
       </c>
       <c r="W45" t="n">
-        <v>0.06378764659166336</v>
+        <v>7.904857920948416e-05</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3878741264343262</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.3976531624794006</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07126612961292267</v>
+        <v>9.562954801367596e-05</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4088680744171143</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.3976708352565765</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0604892261326313</v>
+        <v>0.000125378166558221</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4046680927276611</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.3976861536502838</v>
       </c>
       <c r="W48" t="n">
-        <v>0.005316043738275766</v>
+        <v>4.874747173744254e-05</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.387808084487915</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.85971999168396</v>
       </c>
       <c r="W49" t="n">
-        <v>0.07123494148254395</v>
+        <v>0.2227008491754532</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3892550468444824</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.5473272800445557</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0001992594625335187</v>
+        <v>0.02498683147132397</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3886580467224121</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.4201586842536926</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01573372818529606</v>
+        <v>0.0009922902099788189</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4054319858551025</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.4207848310470581</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0006018682615831494</v>
+        <v>0.0002357098564971238</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3891010284423828</v>
       </c>
       <c r="V53" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.4025036692619324</v>
       </c>
       <c r="W53" t="n">
-        <v>0.3063318431377411</v>
+        <v>0.0001796307769836858</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3884351253509521</v>
       </c>
       <c r="V54" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4888923466205597</v>
       </c>
       <c r="W54" t="n">
-        <v>0.182665154337883</v>
+        <v>0.01009165309369564</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.39394211769104</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.8583245873451233</v>
       </c>
       <c r="W55" t="n">
-        <v>0.007074570748955011</v>
+        <v>0.2156510800123215</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3884658813476562</v>
       </c>
       <c r="V56" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.8598859906196594</v>
       </c>
       <c r="W56" t="n">
-        <v>0.1777508705854416</v>
+        <v>0.2222369164228439</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3881950378417969</v>
       </c>
       <c r="V57" t="n">
-        <v>0.531548023223877</v>
+        <v>0.4859818518161774</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0205500777810812</v>
+        <v>0.009562261402606964</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3889200687408447</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.4088853001594543</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01562157273292542</v>
+        <v>0.0003986104566138238</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4091980457305908</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8814365267753601</v>
       </c>
       <c r="W59" t="n">
-        <v>0.06431906670331955</v>
+        <v>0.2230091840028763</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3935058116912842</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.3974319696426392</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06832671165466309</v>
+        <v>1.541471647215076e-05</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3869531154632568</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.4980466961860657</v>
       </c>
       <c r="W61" t="n">
-        <v>0.004059207625687122</v>
+        <v>0.01234178338199854</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9031689167022705</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.3991732597351074</v>
       </c>
       <c r="W62" t="n">
-        <v>0.010628467425704</v>
+        <v>0.2540116310119629</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.867124080657959</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.3988936245441437</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1121695190668106</v>
+        <v>0.2192397564649582</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.871312141418457</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.4920892715454102</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1179259344935417</v>
+        <v>0.1438099890947342</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8711349964141846</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4081584215164185</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2712742388248444</v>
+        <v>0.2143473029136658</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8629679679870605</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.4822595119476318</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1313299089670181</v>
+        <v>0.1449389308691025</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8693859577178955</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.4088918566703796</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2169124633073807</v>
+        <v>0.2120548188686371</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8999099731445312</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.896108865737915</v>
       </c>
       <c r="W68" t="n">
-        <v>0.08980359882116318</v>
+        <v>1.44484174597892e-05</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8704478740692139</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.8675796389579773</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2700487971305847</v>
+        <v>8.226772479247302e-06</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.864084005355835</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4044277369976044</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2119965702295303</v>
+        <v>0.2112838923931122</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9124557971954346</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.3977188169956207</v>
       </c>
       <c r="W71" t="n">
-        <v>0.06554426252841949</v>
+        <v>0.2649541795253754</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8753039836883545</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.8659788966178894</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1579795777797699</v>
+        <v>8.695724682183936e-05</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8708779811859131</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4203664362430573</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1276106387376785</v>
+        <v>0.2029606550931931</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8659369945526123</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.8703941106796265</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1724235564470291</v>
+        <v>1.986588358704466e-05</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.929757833480835</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.5138546228408813</v>
       </c>
       <c r="W75" t="n">
-        <v>0.180565282702446</v>
+        <v>0.172975480556488</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8674721717834473</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.893840491771698</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1063366159796715</v>
+        <v>0.0006952882977202535</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8770549297332764</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.3977109789848328</v>
       </c>
       <c r="W77" t="n">
-        <v>0.05533852428197861</v>
+        <v>0.229770615696907</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8632938861846924</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.3977022171020508</v>
       </c>
       <c r="W78" t="n">
-        <v>0.2113003581762314</v>
+        <v>0.2167755961418152</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9274520874023438</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.8659307360649109</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1546044498682022</v>
+        <v>0.0037848767824471</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8729979991912842</v>
       </c>
       <c r="V80" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4883160591125488</v>
       </c>
       <c r="W80" t="n">
-        <v>0.00274783349595964</v>
+        <v>0.147980198264122</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.85984206199646</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.4042897820472717</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2347008287906647</v>
+        <v>0.2075278759002686</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5471329689025879</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.4043572545051575</v>
       </c>
       <c r="W82" t="n">
-        <v>0.001105457777157426</v>
+        <v>0.02038490399718285</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5504119396209717</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.8864094614982605</v>
       </c>
       <c r="W83" t="n">
-        <v>0.009949363768100739</v>
+        <v>0.1128943338990211</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5220460891723633</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8910048604011536</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01422549597918987</v>
+        <v>0.1361305713653564</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5191888809204102</v>
       </c>
       <c r="V85" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.872801661491394</v>
       </c>
       <c r="W85" t="n">
-        <v>0.08572503924369812</v>
+        <v>0.1250419914722443</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.516855001449585</v>
       </c>
       <c r="V86" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.3988677263259888</v>
       </c>
       <c r="W86" t="n">
-        <v>0.184399887919426</v>
+        <v>0.01392099726945162</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5128409862518311</v>
       </c>
       <c r="V87" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.4210292100906372</v>
       </c>
       <c r="W87" t="n">
-        <v>0.1923819333314896</v>
+        <v>0.008429402485489845</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5156819820404053</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.8702777028083801</v>
       </c>
       <c r="W88" t="n">
-        <v>0.03055276162922382</v>
+        <v>0.1257381290197372</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5748410224914551</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5014896392822266</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02929810620844364</v>
+        <v>0.005380425602197647</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5271370410919189</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8712131381034851</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0006529795937240124</v>
+        <v>0.1183883622288704</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5203711986541748</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4100953936576843</v>
       </c>
       <c r="W91" t="n">
-        <v>3.344540527905338e-05</v>
+        <v>0.01216075289994478</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5190219879150391</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.5280346870422363</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0003366089367773384</v>
+        <v>8.122874714899808e-05</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5214078426361084</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4995148777961731</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0002951676142401993</v>
+        <v>0.0004793019033968449</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5681281089782715</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8783983588218689</v>
       </c>
       <c r="W94" t="n">
-        <v>0.007875336334109306</v>
+        <v>0.09626762568950653</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5172469615936279</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8677682876586914</v>
       </c>
       <c r="W95" t="n">
-        <v>3.034374913113425e-06</v>
+        <v>0.1228652000427246</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5179810523986816</v>
       </c>
       <c r="V96" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.547921895980835</v>
       </c>
       <c r="W96" t="n">
-        <v>0.02795508317649364</v>
+        <v>0.0008964540902525187</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5168149471282959</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4032078385353088</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0844217911362648</v>
+        <v>0.01290657557547092</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5179400444030762</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.9023210406303406</v>
       </c>
       <c r="W98" t="n">
-        <v>0.02794569544494152</v>
+        <v>0.1477487534284592</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5192270278930664</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.4974579513072968</v>
       </c>
       <c r="W99" t="n">
-        <v>2.230740938102826e-05</v>
+        <v>0.0004738926945719868</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5208740234375</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.8635407090187073</v>
       </c>
       <c r="W100" t="n">
-        <v>0.004608217161148787</v>
+        <v>0.117420457303524</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5196549892425537</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4032297730445862</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01747828349471092</v>
+        <v>0.0135548310354352</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4046330451965332</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.3977015912532806</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01870143786072731</v>
+        <v>4.804505442734808e-05</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4121971130371094</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.4211939573287964</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0106326462700963</v>
+        <v>8.094320946838707e-05</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.415647029876709</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.4246029257774353</v>
       </c>
       <c r="W104" t="n">
-        <v>0.05147035047411919</v>
+        <v>8.020806853892282e-05</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4030430316925049</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.4843035340309143</v>
       </c>
       <c r="W105" t="n">
-        <v>0.03023275546729565</v>
+        <v>0.006603269372135401</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3884580135345459</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.881298303604126</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0002309400151716545</v>
+        <v>0.2428915500640869</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.387423038482666</v>
       </c>
       <c r="V107" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.8737125992774963</v>
       </c>
       <c r="W107" t="n">
-        <v>0.156865119934082</v>
+        <v>0.2364775389432907</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3886420726776123</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.5137019157409668</v>
       </c>
       <c r="W108" t="n">
-        <v>0.008014722727239132</v>
+        <v>0.01563996449112892</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3896229267120361</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.3977283835411072</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01291092298924923</v>
+        <v>6.569843390025198e-05</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3921909332275391</v>
       </c>
       <c r="V110" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.8936061263084412</v>
       </c>
       <c r="W110" t="n">
-        <v>0.1779301315546036</v>
+        <v>0.2514171898365021</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3924579620361328</v>
       </c>
       <c r="V111" t="n">
-        <v>0.504324197769165</v>
+        <v>0.3977448642253876</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01251405477523804</v>
+        <v>2.795133514155168e-05</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3983521461486816</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.8687313795089722</v>
       </c>
       <c r="W112" t="n">
-        <v>2.504855365259573e-05</v>
+        <v>0.2212566286325455</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3916831016540527</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.3977133631706238</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0001421881461283192</v>
+        <v>3.636405381257646e-05</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3909280300140381</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.5163577198982239</v>
       </c>
       <c r="W114" t="n">
-        <v>0.02884962782263756</v>
+        <v>0.01573260687291622</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.39227294921875</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.5079265832901001</v>
       </c>
       <c r="W115" t="n">
-        <v>0.01199545711278915</v>
+        <v>0.01337576285004616</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3921370506286621</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.4032301008701324</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01259570755064487</v>
+        <v>0.000123055768199265</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3936600685119629</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8692775964736938</v>
       </c>
       <c r="W117" t="n">
-        <v>0.06170870736241341</v>
+        <v>0.2262120395898819</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4128909111022949</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.4109524488449097</v>
       </c>
       <c r="W118" t="n">
-        <v>0.01318114250898361</v>
+        <v>3.757636022783117e-06</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3946609497070312</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.5138939023017883</v>
       </c>
       <c r="W119" t="n">
-        <v>0.01197076682001352</v>
+        <v>0.01421649660915136</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.401543140411377</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8664169907569885</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02529720216989517</v>
+        <v>0.2161076962947845</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3936769962310791</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.8744207620620728</v>
       </c>
       <c r="W121" t="n">
-        <v>0.001840800861828029</v>
+        <v>0.2311145663261414</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8793509006500244</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.397743433713913</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1142168864607811</v>
+        <v>0.2319457530975342</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9259688854217529</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.397691547870636</v>
       </c>
       <c r="W123" t="n">
-        <v>0.0517999604344368</v>
+        <v>0.2790769338607788</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8711721897125244</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.4013729691505432</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1272620260715485</v>
+        <v>0.2207113057374954</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8734490871429443</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.4867764115333557</v>
       </c>
       <c r="W125" t="n">
-        <v>0.03109398297965527</v>
+        <v>0.149515762925148</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8904759883880615</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.5481226444244385</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2651575803756714</v>
+        <v>0.1172058135271072</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9335901737213135</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.397710919380188</v>
       </c>
       <c r="W127" t="n">
-        <v>0.08431590348482132</v>
+        <v>0.287166565656662</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8639388084411621</v>
       </c>
       <c r="V128" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4014673829078674</v>
       </c>
       <c r="W128" t="n">
-        <v>0.006404413376003504</v>
+        <v>0.2138798236846924</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8650038242340088</v>
       </c>
       <c r="V129" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.8749334216117859</v>
       </c>
       <c r="W129" t="n">
-        <v>0.00239418470300734</v>
+        <v>9.859690180746838e-05</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8652679920196533</v>
       </c>
       <c r="V130" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.487359344959259</v>
       </c>
       <c r="W130" t="n">
-        <v>0.006794234272092581</v>
+        <v>0.1428149491548538</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9202108383178711</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8704195022583008</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2968424260616302</v>
+        <v>0.002479177201166749</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8740789890289307</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8730067014694214</v>
       </c>
       <c r="W132" t="n">
-        <v>0.08152776956558228</v>
+        <v>1.149800596067507e-06</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8861930370330811</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.8581033945083618</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1188984662294388</v>
+        <v>0.0007890280103310943</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8621330261230469</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.5139514207839966</v>
       </c>
       <c r="W134" t="n">
-        <v>0.02945866622030735</v>
+        <v>0.1212304309010506</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8796448707580566</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.4880058765411377</v>
       </c>
       <c r="W135" t="n">
-        <v>0.03883348405361176</v>
+        <v>0.1533811092376709</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8672890663146973</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4043374955654144</v>
       </c>
       <c r="W136" t="n">
-        <v>0.03379658982157707</v>
+        <v>0.2143241614103317</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8677690029144287</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.4861878156661987</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1091570630669594</v>
+        <v>0.145604208111763</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8679239749908447</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.4926057457923889</v>
       </c>
       <c r="W138" t="n">
-        <v>0.2156005054712296</v>
+        <v>0.1408637762069702</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8858239650726318</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.5187740325927734</v>
       </c>
       <c r="W139" t="n">
-        <v>0.05876171588897705</v>
+        <v>0.1347256600856781</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8673989772796631</v>
       </c>
       <c r="V140" t="n">
-        <v>0.534324586391449</v>
+        <v>0.5139515399932861</v>
       </c>
       <c r="W140" t="n">
-        <v>0.110938549041748</v>
+        <v>0.1249250918626785</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8746049404144287</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.8666309118270874</v>
       </c>
       <c r="W141" t="n">
-        <v>0.04763932153582573</v>
+        <v>6.358513201121241e-05</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5367920398712158</v>
       </c>
       <c r="V142" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8807769417762756</v>
       </c>
       <c r="W142" t="n">
-        <v>0.07119759172201157</v>
+        <v>0.1183256134390831</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5399448871612549</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.3977264761924744</v>
       </c>
       <c r="W143" t="n">
-        <v>0.001365090487524867</v>
+        <v>0.02022607624530792</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5228891372680664</v>
       </c>
       <c r="V144" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.5097420215606689</v>
       </c>
       <c r="W144" t="n">
-        <v>0.07974357157945633</v>
+        <v>0.0001728466450003907</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5181410312652588</v>
       </c>
       <c r="V145" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.8586268424987793</v>
       </c>
       <c r="W145" t="n">
-        <v>0.02800718694925308</v>
+        <v>0.115930587053299</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5236160755157471</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.8713538646697998</v>
       </c>
       <c r="W146" t="n">
-        <v>9.729090379551053e-05</v>
+        <v>0.1209215670824051</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5291709899902344</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.5137857794761658</v>
       </c>
       <c r="W147" t="n">
-        <v>0.03182066231966019</v>
+        <v>0.0002367046981817111</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5758728981018066</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.4219769239425659</v>
       </c>
       <c r="W148" t="n">
-        <v>0.03848941624164581</v>
+        <v>0.02368397079408169</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5185301303863525</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4871175289154053</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0001291211519856006</v>
+        <v>0.0009867515182122588</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5424740314483643</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.403082013130188</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01934530772268772</v>
+        <v>0.01943013444542885</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5694489479064941</v>
       </c>
       <c r="V151" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.4771700501441956</v>
       </c>
       <c r="W151" t="n">
-        <v>0.04781576618552208</v>
+        <v>0.008515395224094391</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5679459571838379</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8806344866752625</v>
       </c>
       <c r="W152" t="n">
-        <v>0.03488681465387344</v>
+        <v>0.09777411818504333</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.6160671710968018</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.5197258591651917</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0224322471767664</v>
+        <v>0.009281648322939873</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5219650268554688</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.4914590716362</v>
       </c>
       <c r="W154" t="n">
-        <v>0.03104599006474018</v>
+        <v>0.0009306133142672479</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5227479934692383</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.4916819930076599</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0005231952527537942</v>
+        <v>0.0009650964057072997</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5243408679962158</v>
       </c>
       <c r="V156" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.8711140155792236</v>
       </c>
       <c r="W156" t="n">
-        <v>0.08040095120668411</v>
+        <v>0.1202516183257103</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5212581157684326</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.4866839349269867</v>
       </c>
       <c r="W157" t="n">
-        <v>0.000259365129750222</v>
+        <v>0.001195373944938183</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5190019607543945</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.4097923636436462</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02841172926127911</v>
+        <v>0.01192673575133085</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5227711200714111</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.3977413475513458</v>
       </c>
       <c r="W159" t="n">
-        <v>0.003197261597961187</v>
+        <v>0.01563244313001633</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5196609497070312</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.4195820987224579</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0232874657958746</v>
+        <v>0.01001577638089657</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5215420722961426</v>
       </c>
       <c r="V161" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8732380270957947</v>
       </c>
       <c r="W161" t="n">
-        <v>0.02915822714567184</v>
+        <v>0.1236900463700294</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3953540325164795</v>
       </c>
       <c r="V162" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.3976932168006897</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1685507148504257</v>
+        <v>5.471782969834749e-06</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3877170085906982</v>
       </c>
       <c r="V163" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.4008618295192719</v>
       </c>
       <c r="W163" t="n">
-        <v>0.31794273853302</v>
+        <v>0.0001727863127598539</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4533250331878662</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.8692163825035095</v>
       </c>
       <c r="W164" t="n">
-        <v>0.02398565039038658</v>
+        <v>0.1729656159877777</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3950901031494141</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.5193106532096863</v>
       </c>
       <c r="W165" t="n">
-        <v>0.06144016981124878</v>
+        <v>0.0154307447373867</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3940849304199219</v>
       </c>
       <c r="V166" t="n">
-        <v>0.656647801399231</v>
+        <v>0.4981705546379089</v>
       </c>
       <c r="W166" t="n">
-        <v>0.06893926113843918</v>
+        <v>0.01083381753414869</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3941659927368164</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.4913518726825714</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01431743614375591</v>
+        <v>0.009445095434784889</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3902099132537842</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.3992241621017456</v>
       </c>
       <c r="W168" t="n">
-        <v>0.000181269773747772</v>
+        <v>8.125667955027893e-05</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3931648731231689</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.506009578704834</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01210486888885498</v>
+        <v>0.01273392792791128</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4191799163818359</v>
       </c>
       <c r="V170" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.8575425744056702</v>
       </c>
       <c r="W170" t="n">
-        <v>0.004455700516700745</v>
+        <v>0.192161813378334</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3926129341125488</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.8697933554649353</v>
       </c>
       <c r="W171" t="n">
-        <v>0.08405303955078125</v>
+        <v>0.2277011573314667</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3941249847412109</v>
       </c>
       <c r="V172" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4219316840171814</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1516198366880417</v>
+        <v>0.0007732125231996179</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3931169509887695</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.4858862459659576</v>
       </c>
       <c r="W173" t="n">
-        <v>0.08376463502645493</v>
+        <v>0.008606142364442348</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4061641693115234</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.8627065420150757</v>
       </c>
       <c r="W174" t="n">
-        <v>6.45171257929178e-06</v>
+        <v>0.2084309309720993</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3932449817657471</v>
       </c>
       <c r="V175" t="n">
-        <v>0.350296825170517</v>
+        <v>0.5212337970733643</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001844544196501374</v>
+        <v>0.01638113707304001</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3951010704040527</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.4228677749633789</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01165937446057796</v>
+        <v>0.0007709898636676371</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4156129360198975</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.8684839010238647</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002017267979681492</v>
+        <v>0.205092117190361</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3956329822540283</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.5004580616950989</v>
       </c>
       <c r="W178" t="n">
-        <v>0.09099253267049789</v>
+        <v>0.01098829694092274</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3952579498291016</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.8695065379142761</v>
       </c>
       <c r="W179" t="n">
-        <v>0.03270380198955536</v>
+        <v>0.2249117195606232</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3933358192443848</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.3976737856864929</v>
       </c>
       <c r="W180" t="n">
-        <v>0.07770611345767975</v>
+        <v>1.881795287772547e-05</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4001789093017578</v>
       </c>
       <c r="V181" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.4099311828613281</v>
       </c>
       <c r="W181" t="n">
-        <v>0.1467027068138123</v>
+        <v>9.510683594271541e-05</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9346530437469482</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.8677090406417847</v>
       </c>
       <c r="W182" t="n">
-        <v>0.06358873099088669</v>
+        <v>0.004481499549001455</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8707888126373291</v>
       </c>
       <c r="V183" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.3977338075637817</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2452072501182556</v>
+        <v>0.2237810343503952</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8717749118804932</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.8789122104644775</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1117703840136528</v>
+        <v>5.094103107694536e-05</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8786690235137939</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.4878610372543335</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1135968118906021</v>
+        <v>0.1527308821678162</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9325599670410156</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.513765811920166</v>
       </c>
       <c r="W186" t="n">
-        <v>0.07754270732402802</v>
+        <v>0.1753885447978973</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8882260322570801</v>
       </c>
       <c r="V187" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.5184732675552368</v>
       </c>
       <c r="W187" t="n">
-        <v>0.01101446710526943</v>
+        <v>0.1367171108722687</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8728690147399902</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4011938571929932</v>
       </c>
       <c r="W188" t="n">
-        <v>0.04668590798974037</v>
+        <v>0.222477450966835</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.871528148651123</v>
       </c>
       <c r="V189" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4871340692043304</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2407826036214828</v>
+        <v>0.147758811712265</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9353799819946289</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.8665526509284973</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1552555859088898</v>
+        <v>0.004737201612442732</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>1.139770030975342</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.4762767553329468</v>
       </c>
       <c r="W191" t="n">
-        <v>0.6225239038467407</v>
+        <v>0.4402233362197876</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8851068019866943</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.4979507923126221</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1660372614860535</v>
+        <v>0.1498897820711136</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8734078407287598</v>
       </c>
       <c r="V193" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.9017974734306335</v>
       </c>
       <c r="W193" t="n">
-        <v>0.004036253783851862</v>
+        <v>0.0008059712708927691</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8867008686065674</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.8667482137680054</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1386635005474091</v>
+        <v>0.0003981084446422756</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.871157169342041</v>
       </c>
       <c r="V195" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4902068972587585</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2454074770212173</v>
+        <v>0.1451231092214584</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8626179695129395</v>
       </c>
       <c r="V196" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.4903110563755035</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2619819939136505</v>
+        <v>0.1386124342679977</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8710041046142578</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4953987002372742</v>
       </c>
       <c r="W197" t="n">
-        <v>0.09552668780088425</v>
+        <v>0.1410794258117676</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8685259819030762</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.8687962293624878</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1337766051292419</v>
+        <v>7.303368931843579e-08</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8737170696258545</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8894967436790466</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2163829654455185</v>
+        <v>0.0002489981125108898</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8619430065155029</v>
       </c>
       <c r="V200" t="n">
-        <v>0.350784033536911</v>
+        <v>0.5138763189315796</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2612834572792053</v>
+        <v>0.1211504191160202</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9144899845123291</v>
       </c>
       <c r="V201" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.4859141707420349</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2783189117908478</v>
+        <v>0.1836772263050079</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5230188369750977</v>
       </c>
       <c r="V202" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4760608077049255</v>
       </c>
       <c r="W202" t="n">
-        <v>0.06815151125192642</v>
+        <v>0.002205056603997946</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5198538303375244</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.8687376379966736</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0004603549605235457</v>
+        <v>0.1217199116945267</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5238921642303467</v>
       </c>
       <c r="V204" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4106486141681671</v>
       </c>
       <c r="W204" t="n">
-        <v>8.701394835952669e-05</v>
+        <v>0.01282410137355328</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5215418338775635</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.3977131247520447</v>
       </c>
       <c r="W205" t="n">
-        <v>0.02138418331742287</v>
+        <v>0.01533354911953211</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5227420330047607</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4042744040489197</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01419452391564846</v>
+        <v>0.01403457950800657</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5245201587677002</v>
       </c>
       <c r="V207" t="n">
-        <v>0.782903790473938</v>
+        <v>0.8669001460075378</v>
       </c>
       <c r="W207" t="n">
-        <v>0.06676210463047028</v>
+        <v>0.1172240525484085</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5185220241546631</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.4205487966537476</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01804699189960957</v>
+        <v>0.009598753415048122</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5172538757324219</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4045450389385223</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0001140233580372296</v>
+        <v>0.01270328182727098</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5207748413085938</v>
       </c>
       <c r="V210" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.5098413228988647</v>
       </c>
       <c r="W210" t="n">
-        <v>0.06861187517642975</v>
+        <v>0.0001195418226416223</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5242879390716553</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.5179398059844971</v>
       </c>
       <c r="W211" t="n">
-        <v>0.007045388221740723</v>
+        <v>4.029879346489906e-05</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5765249729156494</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.8768150806427002</v>
       </c>
       <c r="W212" t="n">
-        <v>0.001785362837836146</v>
+        <v>0.09017414599657059</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.525475025177002</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.4878973960876465</v>
       </c>
       <c r="W213" t="n">
-        <v>0.00038883913657628</v>
+        <v>0.001412078156135976</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5259308815002441</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.5137814879417419</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0005805804394185543</v>
+        <v>0.0001476077595725656</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5243239402770996</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.4996849298477173</v>
       </c>
       <c r="W215" t="n">
-        <v>6.609809497604147e-05</v>
+        <v>0.0006070808158256114</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5261631011962891</v>
       </c>
       <c r="V216" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4117827713489532</v>
       </c>
       <c r="W216" t="n">
-        <v>0.1764106750488281</v>
+        <v>0.01308286003768444</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5653340816497803</v>
       </c>
       <c r="V217" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8835286498069763</v>
       </c>
       <c r="W217" t="n">
-        <v>0.1451107114553452</v>
+        <v>0.1012477800250053</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5235130786895752</v>
       </c>
       <c r="V218" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.4904330372810364</v>
       </c>
       <c r="W218" t="n">
-        <v>0.176778182387352</v>
+        <v>0.001094289124011993</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5250999927520752</v>
       </c>
       <c r="V219" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.5136218070983887</v>
       </c>
       <c r="W219" t="n">
-        <v>0.06603912264108658</v>
+        <v>0.0001317487476626411</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5225710868835449</v>
       </c>
       <c r="V220" t="n">
-        <v>0.381181538105011</v>
+        <v>0.39767786860466</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01999100483953953</v>
+        <v>0.01559831574559212</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5214908123016357</v>
       </c>
       <c r="V221" t="n">
-        <v>0.946087121963501</v>
+        <v>0.5004868507385254</v>
       </c>
       <c r="W221" t="n">
-        <v>0.1802820265293121</v>
+        <v>0.0004411663976497948</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3889279365539551</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.8745749592781067</v>
       </c>
       <c r="W222" t="n">
-        <v>0.01564387045800686</v>
+        <v>0.2358530312776566</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.413477897644043</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.4209704101085663</v>
       </c>
       <c r="W223" t="n">
-        <v>9.596558084012941e-05</v>
+        <v>5.61377419217024e-05</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3978509902954102</v>
       </c>
       <c r="V224" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.8612975478172302</v>
       </c>
       <c r="W224" t="n">
-        <v>0.2966174781322479</v>
+        <v>0.21478271484375</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3941080570220947</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4031510651111603</v>
       </c>
       <c r="W225" t="n">
-        <v>0.003187582828104496</v>
+        <v>8.177599374903366e-05</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.396481990814209</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.8933477401733398</v>
       </c>
       <c r="W226" t="n">
-        <v>0.03179145231842995</v>
+        <v>0.2468755692243576</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3980131149291992</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.5193021297454834</v>
       </c>
       <c r="W227" t="n">
-        <v>0.002758313668891788</v>
+        <v>0.01471102517098188</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3982460498809814</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.8748550415039062</v>
       </c>
       <c r="W228" t="n">
-        <v>0.002518817782402039</v>
+        <v>0.2271561324596405</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.449660062789917</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4940844178199768</v>
       </c>
       <c r="W229" t="n">
-        <v>0.06144466251134872</v>
+        <v>0.001973523292690516</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3959939479827881</v>
       </c>
       <c r="V230" t="n">
-        <v>0.541418194770813</v>
+        <v>0.3977280557155609</v>
       </c>
       <c r="W230" t="n">
-        <v>0.02114821225404739</v>
+        <v>3.007129635079764e-06</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3977630138397217</v>
       </c>
       <c r="V231" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.4108579158782959</v>
       </c>
       <c r="W231" t="n">
-        <v>0.002207187004387379</v>
+        <v>0.0001714764657663181</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3968420028686523</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.4987370669841766</v>
       </c>
       <c r="W232" t="n">
-        <v>0.01145749539136887</v>
+        <v>0.01038260385394096</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3970139026641846</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8783755898475647</v>
       </c>
       <c r="W233" t="n">
-        <v>0.06542998552322388</v>
+        <v>0.2317090779542923</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3987858295440674</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.869242250919342</v>
       </c>
       <c r="W234" t="n">
-        <v>0.000786766002420336</v>
+        <v>0.2213292419910431</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4533138275146484</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8677362203598022</v>
       </c>
       <c r="W235" t="n">
-        <v>0.007532891351729631</v>
+        <v>0.1717459261417389</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.399367094039917</v>
       </c>
       <c r="V236" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4897682964801788</v>
       </c>
       <c r="W236" t="n">
-        <v>0.010930678807199</v>
+        <v>0.00817237701267004</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3943650722503662</v>
       </c>
       <c r="V237" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.8730385303497314</v>
       </c>
       <c r="W237" t="n">
-        <v>0.0001772604446159676</v>
+        <v>0.229128286242485</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.391916036605835</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.5086097717285156</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01260542217642069</v>
+        <v>0.01361742801964283</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3918170928955078</v>
       </c>
       <c r="V239" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.8577994108200073</v>
       </c>
       <c r="W239" t="n">
-        <v>0.3050988614559174</v>
+        <v>0.2171395272016525</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3881440162658691</v>
       </c>
       <c r="V240" t="n">
-        <v>0.514474630355835</v>
+        <v>0.8815593719482422</v>
       </c>
       <c r="W240" t="n">
-        <v>0.01595942489802837</v>
+        <v>0.2434587180614471</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4428050518035889</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.8668801188468933</v>
       </c>
       <c r="W241" t="n">
-        <v>0.1351157128810883</v>
+        <v>0.1798396557569504</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8850870132446289</v>
       </c>
       <c r="V242" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.8799461722373962</v>
       </c>
       <c r="W242" t="n">
-        <v>0.005805460270494223</v>
+        <v>2.642824620124884e-05</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8798251152038574</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4092360436916351</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1192903593182564</v>
+        <v>0.221454069018364</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8727951049804688</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.5187093615531921</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2724914848804474</v>
+        <v>0.1253767162561417</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9352459907531738</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.4219627678394318</v>
       </c>
       <c r="W245" t="n">
-        <v>0.08560271561145782</v>
+        <v>0.263459712266922</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8779680728912354</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.8568961620330811</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1134361550211906</v>
+        <v>0.0004440254415385425</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8827321529388428</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.9015647768974304</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1194530427455902</v>
+        <v>0.0003546677180565894</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8742949962615967</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.4859548211097717</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1294316649436951</v>
+        <v>0.1508080959320068</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9502129554748535</v>
       </c>
       <c r="V249" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.9007932543754578</v>
       </c>
       <c r="W249" t="n">
-        <v>0.02049778588116169</v>
+        <v>0.002442306838929653</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8725888729095459</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.8697147369384766</v>
       </c>
       <c r="W250" t="n">
-        <v>0.04740943387150764</v>
+        <v>8.260657523351256e-06</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8868601322174072</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.4893222451210022</v>
       </c>
       <c r="W251" t="n">
-        <v>0.06002459302544594</v>
+        <v>0.1580363661050797</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8719358444213867</v>
       </c>
       <c r="V252" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4077598452568054</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2720295190811157</v>
+        <v>0.2154593616724014</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9654839038848877</v>
       </c>
       <c r="V253" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4219132661819458</v>
       </c>
       <c r="W253" t="n">
-        <v>0.03304361552000046</v>
+        <v>0.2954690456390381</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>1.206784963607788</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.8677526116371155</v>
       </c>
       <c r="W254" t="n">
-        <v>0.5316798090934753</v>
+        <v>0.1149429380893707</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8815159797668457</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.8910593390464783</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2816767394542694</v>
+        <v>9.107570804189891e-05</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9038701057434082</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.5096923112869263</v>
       </c>
       <c r="W256" t="n">
-        <v>0.06906727701425552</v>
+        <v>0.155376136302948</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8837211132049561</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.4092424511909485</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1743080765008926</v>
+        <v>0.2251300066709518</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8982620239257812</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.513761043548584</v>
       </c>
       <c r="W258" t="n">
-        <v>0.05918524041771889</v>
+        <v>0.1478410065174103</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8745191097259521</v>
       </c>
       <c r="V259" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.8806726336479187</v>
       </c>
       <c r="W259" t="n">
-        <v>0.004148552194237709</v>
+        <v>3.78658551198896e-05</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8700950145721436</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.8941687941551208</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1355637311935425</v>
+        <v>0.0005795468459837139</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8766560554504395</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.8652021884918213</v>
       </c>
       <c r="W261" t="n">
-        <v>0.05382028967142105</v>
+        <v>0.0001311910746153444</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5326499938964844</v>
       </c>
       <c r="V262" t="n">
-        <v>0.654965877532959</v>
+        <v>0.878003716468811</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01496117562055588</v>
+        <v>0.1192691922187805</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5400080680847168</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.4818862080574036</v>
       </c>
       <c r="W263" t="n">
-        <v>0.02852181904017925</v>
+        <v>0.003378150518983603</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5232799053192139</v>
       </c>
       <c r="V264" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4969132542610168</v>
       </c>
       <c r="W264" t="n">
-        <v>0.1756966114044189</v>
+        <v>0.0006952002877369523</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5238220691680908</v>
       </c>
       <c r="V265" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.4017264842987061</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0809880793094635</v>
+        <v>0.01490733213722706</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5251779556274414</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.8776072263717651</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01622897759079933</v>
+        <v>0.1242063939571381</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5320019721984863</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.494817852973938</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01648835092782974</v>
+        <v>0.00138265872374177</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5274009704589844</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.3976625204086304</v>
       </c>
       <c r="W268" t="n">
-        <v>0.001104467082768679</v>
+        <v>0.01683206483721733</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5261731147766113</v>
       </c>
       <c r="V269" t="n">
-        <v>0.944080114364624</v>
+        <v>0.5139460563659668</v>
       </c>
       <c r="W269" t="n">
-        <v>0.174646258354187</v>
+        <v>0.0001495009637437761</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.523406982421875</v>
       </c>
       <c r="V270" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.8753587007522583</v>
       </c>
       <c r="W270" t="n">
-        <v>0.1755728125572205</v>
+        <v>0.1238700151443481</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.524493932723999</v>
       </c>
       <c r="V271" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.8931107521057129</v>
       </c>
       <c r="W271" t="n">
-        <v>0.06676160544157028</v>
+        <v>0.1358783543109894</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5320031642913818</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4894073605537415</v>
       </c>
       <c r="W272" t="n">
-        <v>0.0008745460654608905</v>
+        <v>0.001814402523450553</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5262110233306885</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8673455119132996</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01503392122685909</v>
+        <v>0.1163727417588234</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5276648998260498</v>
       </c>
       <c r="V274" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4014192819595337</v>
       </c>
       <c r="W274" t="n">
-        <v>0.1765727400779724</v>
+        <v>0.01593795605003834</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5256328582763672</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.3992215991020203</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01489495579153299</v>
+        <v>0.01597980596125126</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5699729919433594</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.868033230304718</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01477912534028292</v>
+        <v>0.08883990347385406</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5278642177581787</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8733431100845337</v>
       </c>
       <c r="W277" t="n">
-        <v>0.003710418473929167</v>
+        <v>0.1193556636571884</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5412349700927734</v>
       </c>
       <c r="V278" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.4889808297157288</v>
       </c>
       <c r="W278" t="n">
-        <v>0.05842289328575134</v>
+        <v>0.002730495296418667</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5354330539703369</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4895281195640564</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01391225028783083</v>
+        <v>0.002107263077050447</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5327210426330566</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.4977178573608398</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01667085662484169</v>
+        <v>0.001225222949869931</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5902218818664551</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.8668809533119202</v>
       </c>
       <c r="W281" t="n">
-        <v>0.02009107917547226</v>
+        <v>0.07654023915529251</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4234740734100342</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.4044823348522186</v>
       </c>
       <c r="W282" t="n">
-        <v>0.06714396923780441</v>
+        <v>0.0003606861282605678</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4039638042449951</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4043165445327759</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0005152255762368441</v>
+        <v>1.244257106236546e-07</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4023079872131348</v>
       </c>
       <c r="V284" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4967570304870605</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01257165055721998</v>
+        <v>0.008920622058212757</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4022848606109619</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.5138939619064331</v>
       </c>
       <c r="W285" t="n">
-        <v>0.01934639364480972</v>
+        <v>0.01245659124106169</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4012451171875</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.5138500928878784</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01062249578535557</v>
+        <v>0.01267988048493862</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4587430953979492</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.3974694609642029</v>
       </c>
       <c r="W287" t="n">
-        <v>0.003066923236474395</v>
+        <v>0.003754458390176296</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4033792018890381</v>
       </c>
       <c r="V288" t="n">
-        <v>0.65655517578125</v>
+        <v>0.3990257978439331</v>
       </c>
       <c r="W288" t="n">
-        <v>0.06409807503223419</v>
+        <v>1.895212699309923e-05</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4052109718322754</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.5067428946495056</v>
       </c>
       <c r="W289" t="n">
-        <v>3.967300926888129e-06</v>
+        <v>0.01030873134732246</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3977100849151611</v>
       </c>
       <c r="V290" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.498653382062912</v>
       </c>
       <c r="W290" t="n">
-        <v>0.1490579694509506</v>
+        <v>0.01018954906612635</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4016931056976318</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.8702738881111145</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01835886389017105</v>
+        <v>0.2195679545402527</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4048399925231934</v>
       </c>
       <c r="V292" t="n">
-        <v>0.654166579246521</v>
+        <v>0.8673374056816101</v>
       </c>
       <c r="W292" t="n">
-        <v>0.06216374784708023</v>
+        <v>0.2139038592576981</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.453355073928833</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4971601665019989</v>
       </c>
       <c r="W293" t="n">
-        <v>0.002477088244631886</v>
+        <v>0.00191888608969748</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3977370262145996</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4044412672519684</v>
       </c>
       <c r="W294" t="n">
-        <v>0.06709949672222137</v>
+        <v>4.494684617384337e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3999819755554199</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8752433657646179</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01812511496245861</v>
+        <v>0.2258733958005905</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.404771089553833</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.3988900780677795</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01682317443192005</v>
+        <v>3.458629726083018e-05</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4034111499786377</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.3977216482162476</v>
       </c>
       <c r="W297" t="n">
-        <v>3.15706962794593e-08</v>
+        <v>3.237042983528227e-05</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4014849662780762</v>
       </c>
       <c r="V298" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.8561773300170898</v>
       </c>
       <c r="W298" t="n">
-        <v>0.16523477435112</v>
+        <v>0.2067451477050781</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4307370185852051</v>
       </c>
       <c r="V299" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.8669050335884094</v>
       </c>
       <c r="W299" t="n">
-        <v>0.006393194664269686</v>
+        <v>0.1902425438165665</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.402601957321167</v>
       </c>
       <c r="V300" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.3977163434028625</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0004635384248103946</v>
+        <v>2.386922278674319e-05</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4048280715942383</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.4105745553970337</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0119146965444088</v>
+        <v>3.302207551314496e-05</v>
       </c>
     </row>
     <row r="302" spans="1:23">
